--- a/branches/fix-index-page-content/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/fix-index-page-content/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:03:48+00:00</t>
+    <t>2023-02-17T06:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fix-index-page-content/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/fix-index-page-content/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:10:41+00:00</t>
+    <t>2023-02-17T06:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
